--- a/Zeszyt1.xlsx
+++ b/Zeszyt1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="19560" windowHeight="8340"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="19560" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -345,22 +345,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F8:G12"/>
+  <dimension ref="F8:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="8" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="6:9" x14ac:dyDescent="0.25">
       <c r="G8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F12">
-        <v>23423</v>
+        <v>12323</v>
+      </c>
+    </row>
+    <row r="15" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <v>123123</v>
       </c>
     </row>
   </sheetData>
